--- a/bin/com/NFHS/xls/UserDashboard.xlsx
+++ b/bin/com/NFHS/xls/UserDashboard.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>TCID</t>
   </si>
@@ -60,12 +60,16 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -445,11 +449,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="55.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="55.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1">
@@ -535,10 +539,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -567,6 +571,9 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
